--- a/biology/Mycologie/Lanzia_echinophila/Lanzia_echinophila.xlsx
+++ b/biology/Mycologie/Lanzia_echinophila/Lanzia_echinophila.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lanzia echinophila est une espèce de champignons (Fungi) ascomycètes de la famille des Helotiaceae. Cette pézize brune présente sur l'ensemble de l'Eurasie se développe au sein des bogues de châtaignes.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lanzia echinophila produit des apothécies aux allures de pézizes mesurant de 3 à 10 mm de diamètre. Colorées de brun tabac, lisses et brillantes à mates, elles sont en forme de coupelle aux bordures régulières, entières et rarement dentelées, la partie extérieure descendant sur le pied. Ce dernier, plus ou moins visible, effilé sur sa base et plus sombre, mesure de 5 à 12 mm de long pour 1 mm d'épaisseur. La chair, fragile et brunâtre, a la consistance de la cire et présente une saveur douce et une odeur nulle[3],[4],[5].
-Lanzia echinophila produit des spores contenant jusqu'à 3 cloisons parfois guttulées et en forme de croissant allongé mesurant de 17 à 20 μm de long pour 4,4 à 5,8 μm de large. Elles sont portées par 8 par des asques mesurant de 100 à 120 μm de long pour 10 à 12 μm de large. Ils sont protégés par des paraphyses brunes, minces, en forme de cylindre et légèrement élargies en leur sommet[3],[4],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lanzia echinophila produit des apothécies aux allures de pézizes mesurant de 3 à 10 mm de diamètre. Colorées de brun tabac, lisses et brillantes à mates, elles sont en forme de coupelle aux bordures régulières, entières et rarement dentelées, la partie extérieure descendant sur le pied. Ce dernier, plus ou moins visible, effilé sur sa base et plus sombre, mesure de 5 à 12 mm de long pour 1 mm d'épaisseur. La chair, fragile et brunâtre, a la consistance de la cire et présente une saveur douce et une odeur nulle.
+Lanzia echinophila produit des spores contenant jusqu'à 3 cloisons parfois guttulées et en forme de croissant allongé mesurant de 17 à 20 μm de long pour 4,4 à 5,8 μm de large. Elles sont portées par 8 par des asques mesurant de 100 à 120 μm de long pour 10 à 12 μm de large. Ils sont protégés par des paraphyses brunes, minces, en forme de cylindre et légèrement élargies en leur sommet.
 			Paraphyses et asques
 			Asques et spores
 </t>
@@ -545,10 +559,12 @@
           <t>Écologie et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lanzia echinophila se développe en troupe principalement dans les vieilles bogues ouvertes de châtaignes[3],[4],[5]. Plus rarement, elle peut également pousser au sein des glands de Chênes tombés au sol[5]  
-Peu fréquente[3], cette espèce est présente sur l'ensemble du paléarctique de la France au Japon[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lanzia echinophila se développe en troupe principalement dans les vieilles bogues ouvertes de châtaignes. Plus rarement, elle peut également pousser au sein des glands de Chênes tombés au sol  
+Peu fréquente, cette espèce est présente sur l'ensemble du paléarctique de la France au Japon.
 </t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>Confusions possibles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lanzia echinophila présente une écologie et une morphologie suffisamment spécifiques pour être facilement identifiable. Cependant, Ciboria americana E.J. Durand, 1902 est une espèce Nord-américaine à l'écologie identique mais aux apothécies plus petites, jusqu'à 5 mm de diamètre et aux spores non cloisonnées à la longueur supérieure à 12 μm. Quant à Rutstroemia firma (Pers.) P. Karst., 1871, il s'agit d'une espèce morphologiquement identique mais se développant sur les branches mortes de feuillus. Enfin, Ciboria batschiana (Zopf) N.F. Buchw., 1947 est une espèce très ressemblante aux apothécies mesurant environ 15 mm de diamètre et 20 mm de haut, qui apprécie les glands de chênes[3],[4],[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lanzia echinophila présente une écologie et une morphologie suffisamment spécifiques pour être facilement identifiable. Cependant, Ciboria americana E.J. Durand, 1902 est une espèce Nord-américaine à l'écologie identique mais aux apothécies plus petites, jusqu'à 5 mm de diamètre et aux spores non cloisonnées à la longueur supérieure à 12 μm. Quant à Rutstroemia firma (Pers.) P. Karst., 1871, il s'agit d'une espèce morphologiquement identique mais se développant sur les branches mortes de feuillus. Enfin, Ciboria batschiana (Zopf) N.F. Buchw., 1947 est une espèce très ressemblante aux apothécies mesurant environ 15 mm de diamètre et 20 mm de haut, qui apprécie les glands de chênes.
 </t>
         </is>
       </c>
